--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H2">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02608566666666667</v>
+        <v>0.01962266666666667</v>
       </c>
       <c r="N2">
-        <v>0.07825700000000001</v>
+        <v>0.058868</v>
       </c>
       <c r="O2">
-        <v>0.007055522672798638</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="P2">
-        <v>0.007055522672798637</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="Q2">
-        <v>0.004820074705777779</v>
+        <v>0.007617669640444445</v>
       </c>
       <c r="R2">
-        <v>0.04338067235200001</v>
+        <v>0.068559026764</v>
       </c>
       <c r="S2">
-        <v>0.007055522672798638</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="T2">
-        <v>0.007055522672798637</v>
+        <v>0.02207703711370904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H3">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>1.997513</v>
       </c>
       <c r="O3">
-        <v>0.1800924934601381</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="P3">
-        <v>0.180092493460138</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="Q3">
-        <v>0.1230325962631111</v>
+        <v>0.2584832869554444</v>
       </c>
       <c r="R3">
-        <v>1.107293366368</v>
+        <v>2.326349582599</v>
       </c>
       <c r="S3">
-        <v>0.1800924934601381</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="T3">
-        <v>0.180092493460138</v>
+        <v>0.7491195324474467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H4">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1152503333333333</v>
+        <v>0.1131433333333333</v>
       </c>
       <c r="N4">
-        <v>0.345751</v>
+        <v>0.33943</v>
       </c>
       <c r="O4">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="P4">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="Q4">
-        <v>0.02129580292622223</v>
+        <v>0.04392310943222223</v>
       </c>
       <c r="R4">
-        <v>0.191662226336</v>
+        <v>0.39530798489</v>
       </c>
       <c r="S4">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="T4">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H5">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.890024666666667</v>
+        <v>0.09022333333333332</v>
       </c>
       <c r="N5">
-        <v>8.670074000000001</v>
+        <v>0.27067</v>
       </c>
       <c r="O5">
-        <v>0.781679641205796</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="P5">
-        <v>0.7816796412057959</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="Q5">
-        <v>0.5340149045404445</v>
+        <v>0.03502538971222222</v>
       </c>
       <c r="R5">
-        <v>4.806134140864001</v>
+        <v>0.31522850741</v>
       </c>
       <c r="S5">
-        <v>0.781679641205796</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="T5">
-        <v>0.7816796412057959</v>
+        <v>0.1015083175166071</v>
       </c>
     </row>
   </sheetData>
